--- a/StructureDefinition-lk-core-practitioner.xlsx
+++ b/StructureDefinition-lk-core-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="228">
   <si>
     <t>Property</t>
   </si>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1183,16 +1187,16 @@
         <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>36</v>
@@ -1200,10 +1204,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1214,7 +1218,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -1223,19 +1227,19 @@
         <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1285,13 +1289,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -1314,10 +1318,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1328,7 +1332,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>36</v>
@@ -1337,16 +1341,16 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1397,19 +1401,19 @@
         <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -1426,10 +1430,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1440,28 +1444,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1511,19 +1515,19 @@
         <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>36</v>
@@ -1540,10 +1544,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1554,7 +1558,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1566,16 +1570,16 @@
         <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1601,13 +1605,13 @@
         <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -1625,19 +1629,19 @@
         <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>36</v>
@@ -1654,21 +1658,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>36</v>
@@ -1680,16 +1684,16 @@
         <v>36</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1739,25 +1743,25 @@
         <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>36</v>
@@ -1768,14 +1772,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1794,16 +1798,16 @@
         <v>36</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1853,7 +1857,7 @@
         <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>37</v>
@@ -1871,7 +1875,7 @@
         <v>36</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>36</v>
@@ -1882,14 +1886,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1908,16 +1912,16 @@
         <v>36</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1967,7 +1971,7 @@
         <v>36</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
@@ -1979,13 +1983,13 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>36</v>
@@ -1996,14 +2000,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2016,25 +2020,25 @@
         <v>36</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>36</v>
@@ -2083,7 +2087,7 @@
         <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
@@ -2095,13 +2099,13 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>36</v>
@@ -2112,10 +2116,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2135,20 +2139,20 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>36</v>
@@ -2197,7 +2201,7 @@
         <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -2209,27 +2213,27 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2240,7 +2244,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
@@ -2249,105 +2253,105 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="P11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AI11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2367,22 +2371,22 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>36</v>
@@ -2431,7 +2435,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -2443,16 +2447,16 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>36</v>
@@ -2460,10 +2464,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2483,22 +2487,22 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>36</v>
@@ -2547,7 +2551,7 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -2559,16 +2563,16 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>36</v>
@@ -2576,10 +2580,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2599,22 +2603,22 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>36</v>
@@ -2663,7 +2667,7 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>37</v>
@@ -2675,16 +2679,16 @@
         <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>36</v>
@@ -2692,10 +2696,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2706,7 +2710,7 @@
         <v>37</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>36</v>
@@ -2715,20 +2719,20 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>36</v>
@@ -2753,13 +2757,13 @@
         <v>36</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
@@ -2777,28 +2781,28 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>36</v>
@@ -2806,10 +2810,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2820,7 +2824,7 @@
         <v>37</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>36</v>
@@ -2829,20 +2833,20 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>36</v>
@@ -2891,28 +2895,28 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>36</v>
@@ -2920,10 +2924,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2946,17 +2950,17 @@
         <v>36</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>36</v>
@@ -3005,7 +3009,7 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
@@ -3017,16 +3021,16 @@
         <v>36</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>36</v>
@@ -3034,10 +3038,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3060,13 +3064,13 @@
         <v>36</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3117,7 +3121,7 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -3129,16 +3133,16 @@
         <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>36</v>
@@ -3146,10 +3150,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3160,7 +3164,7 @@
         <v>37</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>36</v>
@@ -3172,13 +3176,13 @@
         <v>36</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3229,13 +3233,13 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>36</v>
@@ -3247,7 +3251,7 @@
         <v>36</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>36</v>
@@ -3258,14 +3262,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3284,16 +3288,16 @@
         <v>36</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3343,7 +3347,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -3355,13 +3359,13 @@
         <v>36</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>36</v>
@@ -3372,14 +3376,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3392,25 +3396,25 @@
         <v>36</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>36</v>
@@ -3459,7 +3463,7 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
@@ -3471,13 +3475,13 @@
         <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>36</v>
@@ -3488,10 +3492,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3514,17 +3518,17 @@
         <v>36</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>36</v>
@@ -3573,7 +3577,7 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
@@ -3585,13 +3589,13 @@
         <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>36</v>
@@ -3602,10 +3606,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3613,10 +3617,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>36</v>
@@ -3628,13 +3632,13 @@
         <v>36</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3661,13 +3665,13 @@
         <v>36</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>36</v>
@@ -3685,28 +3689,28 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>36</v>
@@ -3714,10 +3718,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3728,7 +3732,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>36</v>
@@ -3740,17 +3744,17 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>36</v>
@@ -3799,28 +3803,28 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>36</v>
@@ -3828,10 +3832,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3842,7 +3846,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>36</v>
@@ -3854,13 +3858,13 @@
         <v>36</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3911,25 +3915,25 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>36</v>
@@ -3940,10 +3944,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3966,19 +3970,19 @@
         <v>36</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>36</v>
@@ -4003,13 +4007,13 @@
         <v>36</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>36</v>
@@ -4027,7 +4031,7 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
@@ -4039,16 +4043,16 @@
         <v>36</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>36</v>
